--- a/ig/ch-epreg/StructureDefinition-ch-epreg-observation-abdominal-circumference.xlsx
+++ b/ig/ch-epreg/StructureDefinition-ch-epreg-observation-abdominal-circumference.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3022" uniqueCount="543">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3022" uniqueCount="544">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0-ballot</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-22T15:10:51+00:00</t>
+    <t>2025-12-16T12:22:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -389,7 +389,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -525,7 +525,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(CarePlan|DeviceRequest|ImmunizationRecommendation|MedicationRequest|NutritionOrder|ServiceRequest)
+    <t xml:space="preserve">Reference(CarePlan|4.0.1|DeviceRequest|4.0.1|ImmunizationRecommendation|4.0.1|MedicationRequest|4.0.1|NutritionOrder|4.0.1|ServiceRequest|4.0.1)
 </t>
   </si>
   <si>
@@ -554,7 +554,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(MedicationAdministration|MedicationDispense|MedicationStatement|Procedure|Immunization|ImagingStudy)
+    <t xml:space="preserve">Reference(MedicationAdministration|4.0.1|MedicationDispense|4.0.1|MedicationStatement|4.0.1|Procedure|4.0.1|Immunization|4.0.1|ImagingStudy|4.0.1)
 </t>
   </si>
   <si>
@@ -637,7 +637,7 @@
     <t>Codes for high level observation categories.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-category</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-category|4.0.1</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
@@ -813,7 +813,7 @@
     <t>Aa resource (or, for logical models, the URI of the logical model).</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/resource-types</t>
+    <t>http://hl7.org/fhir/ValueSet/resource-types|4.0.1</t>
   </si>
   <si>
     <t>Reference.type</t>
@@ -858,7 +858,7 @@
     <t>Observation.focus</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Resource)
+    <t xml:space="preserve">Reference(Resource|4.0.1)
 </t>
   </si>
   <si>
@@ -1230,7 +1230,7 @@
     <t>Codes specifying why the result (`Observation.value[x]`) is missing.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/data-absent-reason</t>
+    <t>http://hl7.org/fhir/ValueSet/data-absent-reason|4.0.1</t>
   </si>
   <si>
     <t xml:space="preserve">obs-6
@@ -1262,7 +1262,7 @@
     <t>Codes identifying interpretations of observations.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-interpretation</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-interpretation|4.0.1</t>
   </si>
   <si>
     <t>&lt; 260245000 |Findings values|</t>
@@ -1318,7 +1318,7 @@
     <t>Codes describing anatomical locations. May include laterality.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/body-site</t>
+    <t>http://hl7.org/fhir/ValueSet/body-site|4.0.1</t>
   </si>
   <si>
     <t>&lt; 123037004 |Body structure|</t>
@@ -1351,7 +1351,7 @@
     <t>Methods for simple observations.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-methods</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-methods|4.0.1</t>
   </si>
   <si>
     <t>OBX-17</t>
@@ -1363,7 +1363,7 @@
     <t>Observation.specimen</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Specimen)
+    <t xml:space="preserve">Reference(Specimen|4.0.1)
 </t>
   </si>
   <si>
@@ -1391,7 +1391,7 @@
     <t>Observation.device</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Device|DeviceMetric)
+    <t xml:space="preserve">Reference(Device|4.0.1|DeviceMetric|4.0.1)
 </t>
   </si>
   <si>
@@ -1471,7 +1471,7 @@
     <t>Observation.referenceRange.low</t>
   </si>
   <si>
-    <t xml:space="preserve">Quantity {SimpleQuantity}
+    <t xml:space="preserve">Quantity {SimpleQuantity|4.0.1}
 </t>
   </si>
   <si>
@@ -1521,7 +1521,7 @@
     <t>Code for the meaning of a reference range.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/referencerange-meaning</t>
+    <t>http://hl7.org/fhir/ValueSet/referencerange-meaning|4.0.1</t>
   </si>
   <si>
     <t>&lt; 260245000 |Findings values| OR  @@ -1554,7 +1554,7 @@
     <t>Codes identifying the population the reference range applies to.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/referencerange-appliesto</t>
+    <t>http://hl7.org/fhir/ValueSet/referencerange-appliesto|4.0.1</t>
   </si>
   <si>
     <t>Observation.referenceRange.age</t>
@@ -1591,7 +1591,7 @@
     <t>Observation.hasMember</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Observation|QuestionnaireResponse|MolecularSequence)
+    <t xml:space="preserve">Reference(Observation|4.0.1|QuestionnaireResponse|4.0.1|MolecularSequence|4.0.1)
 </t>
   </si>
   <si>
@@ -1613,7 +1613,7 @@
     <t>Observation.derivedFrom</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(DocumentReference|ImagingStudy|Media|QuestionnaireResponse|Observation|MolecularSequence)
+    <t xml:space="preserve">Reference(DocumentReference|4.0.1|ImagingStudy|4.0.1|Media|4.0.1|QuestionnaireResponse|4.0.1|Observation|4.0.1|MolecularSequence|4.0.1)
 </t>
   </si>
   <si>
@@ -1672,6 +1672,9 @@
   </si>
   <si>
     <t>Codes identifying names of simple observations.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-codes|4.0.1</t>
   </si>
   <si>
     <t>&lt; 363787002 |Observable entity| OR @@ -2057,7 +2060,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="95.26171875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="122.43359375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2072,7 +2075,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="78.95703125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="43.2890625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="47.7421875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
@@ -7025,7 +7028,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="41" hidden="true">
+    <row r="41">
       <c r="A41" t="s" s="2">
         <v>327</v>
       </c>
@@ -10925,7 +10928,7 @@
         <v>528</v>
       </c>
       <c r="Z72" t="s" s="2">
-        <v>211</v>
+        <v>529</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>84</v>
@@ -10964,7 +10967,7 @@
         <v>84</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>215</v>
@@ -10979,12 +10982,12 @@
         <v>84</v>
       </c>
     </row>
-    <row r="73" hidden="true">
+    <row r="73">
       <c r="A73" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -11007,16 +11010,16 @@
         <v>96</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="M73" t="s" s="2">
         <v>330</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="O73" t="s" s="2">
         <v>332</v>
@@ -11068,7 +11071,7 @@
         <v>84</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>82</v>
@@ -11089,7 +11092,7 @@
         <v>84</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>335</v>
@@ -11106,10 +11109,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11135,13 +11138,13 @@
         <v>193</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="O74" t="s" s="2">
         <v>386</v>
@@ -11193,7 +11196,7 @@
         <v>84</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>82</v>
@@ -11231,10 +11234,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11318,7 +11321,7 @@
         <v>84</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>82</v>
@@ -11356,10 +11359,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11385,10 +11388,10 @@
         <v>85</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="N76" t="s" s="2">
         <v>452</v>
@@ -11443,7 +11446,7 @@
         <v>84</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>82</v>
@@ -11481,12 +11484,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AQ76">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
